--- a/NewMarksheet/Abhisekh Lamichhane.xlsx
+++ b/NewMarksheet/Abhisekh Lamichhane.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="601" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Grading Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Grading Sheet" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Result" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>SUM</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Student ID</t>
-  </si>
-  <si>
-    <t>Enter ID Here</t>
   </si>
   <si>
     <t>Section</t>
@@ -321,145 +318,184 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -486,7 +522,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -499,7 +534,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -512,7 +546,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -523,7 +556,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -536,7 +568,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -549,7 +580,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -558,7 +588,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -567,7 +596,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -578,7 +606,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -593,7 +620,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -606,57 +632,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -667,27 +642,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -700,7 +654,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -711,7 +664,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -722,7 +674,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -737,7 +688,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -752,7 +702,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -767,7 +716,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -782,7 +730,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -797,7 +744,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -812,7 +758,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -827,7 +772,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -842,7 +786,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -853,7 +796,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -866,39 +808,126 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="107">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,172 +960,237 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,90 +1199,103 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1562101</xdr:colOff>
+      <xdr:colOff>1562100</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
+      <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3552824" cy="2162175"/>
+    <xdr:ext cx="3552825" cy="2162175"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2"/>
@@ -1196,8 +1303,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562101" y="1381125"/>
-          <a:ext cx="3552824" cy="2162175"/>
+          <a:off x="1562100" y="1390650"/>
+          <a:ext cx="3552825" cy="2162175"/>
           <a:chOff x="2918301" y="691213"/>
           <a:chExt cx="3533799" cy="2143125"/>
         </a:xfrm>
@@ -1205,10 +1312,12 @@
       <xdr:pic>
         <xdr:nvPicPr>
           <xdr:cNvPr id="3" name="Shape 3"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip r:embed="rId1">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1218,7 +1327,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2918301" y="691213"/>
-            <a:ext cx="2143125" cy="2143125"/>
+            <a:ext cx="2143249" cy="2143125"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1236,8 +1345,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4786800" y="1397575"/>
-            <a:ext cx="1665300" cy="925200"/>
+            <a:off x="4786797" y="1397373"/>
+            <a:ext cx="1665303" cy="925294"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1305,7 +1414,7 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1510,31 +1619,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
+    <col min="1" max="1" width="7.75390625" customWidth="1"/>
+    <col min="2" max="2" width="39.75390625" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="32.875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="31.125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="33.625" customWidth="1"/>
-    <col min="8" max="8" width="31" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="8" max="8" width="31.00390625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="31.00390625" customWidth="1"/>
     <col min="10" max="10" width="31.375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="30.625" customWidth="1"/>
     <col min="12" max="12" width="31.125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="13" max="13" width="31.00390625" customWidth="1"/>
     <col min="14" max="14" width="31.125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="31.875" customWidth="1"/>
-    <col min="16" max="26" width="7.75" customWidth="1"/>
+    <col min="16" max="26" width="7.75390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1597,13 +1706,13 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1722,8 +1831,8 @@
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
+      <c r="C7" s="10">
+        <v>17030683</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -1751,16 +1860,16 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -1809,10 +1918,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="23"/>
@@ -1844,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="29">
         <v>15</v>
@@ -1853,43 +1962,43 @@
         <v>11</v>
       </c>
       <c r="E10" s="31" t="str">
-        <f t="shared" ref="E10:E11" si="0">G10</f>
+        <f t="shared" si="0" ref="E10:E11">G10</f>
         <v>User interface should is properly designed and attractive with proper controls for each properties and have proper navigation for different interfaces</v>
       </c>
       <c r="F10" s="31" t="str">
-        <f t="shared" ref="F10:F11" si="1">G10</f>
+        <f t="shared" si="1" ref="F10:F11">G10</f>
         <v>User interface should is properly designed and attractive with proper controls for each properties and have proper navigation for different interfaces</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="31" t="str">
-        <f t="shared" ref="H10:H11" si="2">I10</f>
+        <f t="shared" si="2" ref="H10:H11">I10</f>
         <v>User Interface is complete but not separated and have proper use of controls</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="31" t="str">
-        <f t="shared" ref="J10:J11" si="3">K10</f>
+        <f t="shared" si="3" ref="J10:J11">K10</f>
         <v>missing controls in the interface</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L10" s="31" t="str">
-        <f t="shared" ref="L10:L11" si="4">M10</f>
+        <f t="shared" si="4" ref="L10:L11">M10</f>
         <v>Design is properly done and in mess</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" s="31" t="str">
-        <f t="shared" ref="N10:N11" si="5">M10</f>
+        <f t="shared" si="5" ref="N10:N11">M10</f>
         <v>Design is properly done and in mess</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1908,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="29">
         <v>15</v>
@@ -1925,35 +2034,35 @@
         <v>Data entry is  proper with appropriate  validation and use of proper datatyps and contains CRUD methods</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="31" t="str">
         <f t="shared" si="2"/>
         <v>appropriate use of data types but missing some properties required or missing CRUD operation</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="31" t="str">
         <f t="shared" si="3"/>
         <v>not properly saved or imported data</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="31" t="str">
         <f t="shared" si="4"/>
         <v>data types not taken care of and not properly executed functionally.</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="31" t="str">
         <f t="shared" si="5"/>
         <v>data types not taken care of and not properly executed functionally.</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1972,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="29">
         <v>5</v>
@@ -1983,23 +2092,23 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="31"/>
       <c r="O12" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2018,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="29">
         <v>10</v>
@@ -2028,42 +2137,42 @@
       </c>
       <c r="E13" s="31" t="str">
         <f>G13</f>
-        <v xml:space="preserve">Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
+        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
       </c>
       <c r="F13" s="31" t="str">
         <f>G13</f>
-        <v xml:space="preserve">Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
+        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="31" t="str">
         <f>I13</f>
         <v>Any one of the report is missing or not complete</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="31" t="str">
         <f>K13</f>
         <v>very poorly executed reports and data not shown accurately</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="31" t="str">
         <f>M13</f>
         <v>over all poor delivery of reports and higlhy inaccurate data shown.</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="31" t="str">
         <f>M13</f>
         <v>over all poor delivery of reports and higlhy inaccurate data shown.</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2082,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="29">
         <v>10</v>
@@ -2093,23 +2202,23 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N14" s="31"/>
       <c r="O14" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2128,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="29">
         <v>5</v>
@@ -2139,23 +2248,23 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2199,10 +2308,10 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
@@ -2234,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="42">
         <v>5</v>
@@ -2251,35 +2360,35 @@
         <v>User Manual is self decriptive and concise. Contains screen shots and step by step use of the application</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="44" t="str">
         <f>I18</f>
-        <v xml:space="preserve">User Manual is good. Contains all varieties of forms. </v>
+        <v>User Manual is good. Contains all varieties of forms. </v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="44" t="str">
         <f>K18</f>
         <v>User Manual is average. Includes description for all interfaces</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="44" t="str">
         <f>M18</f>
-        <v xml:space="preserve">User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only. </v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18" s="44" t="str">
         <f>M18</f>
-        <v xml:space="preserve">User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only. </v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2298,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="29">
         <v>10</v>
@@ -2309,23 +2418,23 @@
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2344,7 +2453,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="29">
         <v>10</v>
@@ -2355,23 +2464,23 @@
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2390,7 +2499,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="51">
         <v>5</v>
@@ -2401,23 +2510,23 @@
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="53"/>
       <c r="M21" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N21" s="53"/>
       <c r="O21" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2433,10 +2542,10 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
       <c r="A22" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="23"/>
@@ -2468,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="60">
         <v>5</v>
@@ -2479,23 +2588,23 @@
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
       <c r="G23" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" s="62"/>
       <c r="I23" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23" s="62"/>
       <c r="K23" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L23" s="62"/>
       <c r="M23" s="63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N23" s="62"/>
       <c r="O23" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P23" s="65"/>
       <c r="Q23" s="65"/>
@@ -2514,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="68">
         <v>5</v>
@@ -2525,23 +2634,23 @@
       <c r="E24" s="70"/>
       <c r="F24" s="70"/>
       <c r="G24" s="71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" s="70"/>
       <c r="K24" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24" s="70"/>
       <c r="M24" s="71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N24" s="70"/>
       <c r="O24" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P24" s="65"/>
       <c r="Q24" s="65"/>
@@ -2558,10 +2667,10 @@
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
       <c r="A25" s="73"/>
       <c r="B25" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="74">
-        <f t="shared" ref="C25:D25" si="6">SUM(C10:C24)</f>
+        <f t="shared" si="6" ref="C25:D25">SUM(C10:C24)</f>
         <v>100</v>
       </c>
       <c r="D25" s="74">
@@ -29895,8 +30004,9 @@
   <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
   </mergeCells>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29904,28 +30014,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="24.25390625" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="2.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="7.75" customWidth="1"/>
+    <col min="6" max="26" width="7.75390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -29949,11 +30059,11 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -29977,11 +30087,11 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="273.75" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -30005,14 +30115,14 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18">
-      <c r="A4" s="80" t="str">
+      <c r="A4" s="103" t="str">
         <f>'Grading Sheet'!B4</f>
         <v>Application Development</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -30036,14 +30146,14 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A5" s="80" t="str">
+      <c r="A5" s="103" t="str">
         <f>'Grading Sheet'!B3</f>
         <v>CS6004NI</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -30067,13 +30177,13 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -30489,7 +30599,7 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="106" t="str">
+      <c r="A21" s="77" t="str">
         <f>"Submitted By:"</f>
         <v>Submitted By:</v>
       </c>
@@ -30497,11 +30607,11 @@
         <f>'Grading Sheet'!C6</f>
         <v>Abhisekh Lamichhane</v>
       </c>
-      <c r="D21" s="105" t="s">
-        <v>21</v>
+      <c r="D21" s="76" t="s">
+        <v>20</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -30526,18 +30636,18 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="105" t="str">
+      <c r="A22" s="76" t="str">
         <f>"London Met ID: "</f>
-        <v xml:space="preserve">London Met ID: </v>
+        <v>London Met ID: </v>
       </c>
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="25">
         <f>'Grading Sheet'!C7</f>
-        <v>Enter ID Here</v>
+        <v>17030683</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -30841,7 +30951,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1">
+    <row r="33" spans="6:26" ht="14.25" customHeight="1">
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -30864,7 +30974,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1">
+    <row r="34" spans="6:26" ht="14.25" customHeight="1">
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -30887,7 +30997,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1">
+    <row r="35" spans="6:26" ht="14.25" customHeight="1">
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -30910,7 +31020,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="6:26" ht="15">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -30934,13 +31044,13 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="53.25" customHeight="1">
-      <c r="A37" s="81" t="s">
-        <v>25</v>
+      <c r="A37" s="104" t="s">
+        <v>24</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -30964,14 +31074,14 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A38" s="84" t="str">
-        <f>CONCATENATE('Grading Sheet'!A9, ". ", 'Grading Sheet'!B9)</f>
+      <c r="A38" s="88" t="str">
+        <f>CONCATENATE('Grading Sheet'!A9,". ",'Grading Sheet'!B9)</f>
         <v>A. Implementation of Application</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="95"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -30995,17 +31105,17 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="90" customHeight="1">
-      <c r="A39" s="88" t="str">
+      <c r="A39" s="83" t="str">
         <f>'Grading Sheet'!B10</f>
         <v>User Interface and proper controls used for designing</v>
       </c>
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
-      <c r="D39" s="101" t="str">
-        <f>IF('Grading Sheet'!D10&gt;'Grading Sheet'!C10*'Grading Sheet'!$G$8,'Grading Sheet'!G10,IF('Grading Sheet'!D10&gt;'Grading Sheet'!C10*'Grading Sheet'!$I$8, 'Grading Sheet'!I10, IF('Grading Sheet'!D10&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C10,'Grading Sheet'!K10, IF('Grading Sheet'!D10&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C10,'Grading Sheet'!M10,'Grading Sheet'!O10))))</f>
+      <c r="D39" s="96" t="str">
+        <f>IF('Grading Sheet'!D10&gt;'Grading Sheet'!C10*'Grading Sheet'!$G$8,'Grading Sheet'!G10,IF('Grading Sheet'!D10&gt;'Grading Sheet'!C10*'Grading Sheet'!$I$8,'Grading Sheet'!I10,IF('Grading Sheet'!D10&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C10,'Grading Sheet'!K10,IF('Grading Sheet'!D10&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C10,'Grading Sheet'!M10,'Grading Sheet'!O10))))</f>
         <v>User Interface is complete but not separated and have proper use of controls</v>
       </c>
-      <c r="E39" s="102"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -31029,17 +31139,17 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="90" customHeight="1">
-      <c r="A40" s="88" t="str">
+      <c r="A40" s="83" t="str">
         <f>'Grading Sheet'!B11</f>
         <v>Manual data entry or import from csv</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="85" t="str">
-        <f>IF('Grading Sheet'!D11&gt;'Grading Sheet'!C11*'Grading Sheet'!$G$8,'Grading Sheet'!G11,IF('Grading Sheet'!D11&gt;'Grading Sheet'!C11*'Grading Sheet'!$I$8, 'Grading Sheet'!I11, IF('Grading Sheet'!D11&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C11,'Grading Sheet'!K11, IF('Grading Sheet'!D11&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C11,'Grading Sheet'!M11,'Grading Sheet'!O11))))</f>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="93" t="str">
+        <f>IF('Grading Sheet'!D11&gt;'Grading Sheet'!C11*'Grading Sheet'!$G$8,'Grading Sheet'!G11,IF('Grading Sheet'!D11&gt;'Grading Sheet'!C11*'Grading Sheet'!$I$8,'Grading Sheet'!I11,IF('Grading Sheet'!D11&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C11,'Grading Sheet'!K11,IF('Grading Sheet'!D11&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C11,'Grading Sheet'!M11,'Grading Sheet'!O11))))</f>
         <v>appropriate use of data types but missing some properties required or missing CRUD operation</v>
       </c>
-      <c r="E40" s="86"/>
+      <c r="E40" s="85"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -31063,17 +31173,17 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="90" customHeight="1">
-      <c r="A41" s="88" t="str">
+      <c r="A41" s="83" t="str">
         <f>'Grading Sheet'!B12</f>
         <v>Data Validation</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="85" t="str">
-        <f>IF('Grading Sheet'!D12&gt;'Grading Sheet'!C12*'Grading Sheet'!$G$8,'Grading Sheet'!G12,IF('Grading Sheet'!D12&gt;'Grading Sheet'!C12*'Grading Sheet'!$I$8, 'Grading Sheet'!I12, IF('Grading Sheet'!D12&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C12,'Grading Sheet'!K12, IF('Grading Sheet'!D12&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C12,'Grading Sheet'!M12,'Grading Sheet'!O12))))</f>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="93" t="str">
+        <f>IF('Grading Sheet'!D12&gt;'Grading Sheet'!C12*'Grading Sheet'!$G$8,'Grading Sheet'!G12,IF('Grading Sheet'!D12&gt;'Grading Sheet'!C12*'Grading Sheet'!$I$8,'Grading Sheet'!I12,IF('Grading Sheet'!D12&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C12,'Grading Sheet'!K12,IF('Grading Sheet'!D12&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C12,'Grading Sheet'!M12,'Grading Sheet'!O12))))</f>
         <v>No validation at all</v>
       </c>
-      <c r="E41" s="86"/>
+      <c r="E41" s="85"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -31097,17 +31207,17 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="33" customHeight="1">
-      <c r="A42" s="88" t="str">
+      <c r="A42" s="83" t="str">
         <f>'Grading Sheet'!B13</f>
         <v>Enrollment Report &amp; weekly report in tabular format</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="85" t="str">
-        <f>IF('Grading Sheet'!D13&gt;'Grading Sheet'!C13*'Grading Sheet'!$G$8,'Grading Sheet'!G13,IF('Grading Sheet'!D13&gt;'Grading Sheet'!C13*'Grading Sheet'!$I$8, 'Grading Sheet'!I13, IF('Grading Sheet'!D13&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C13,'Grading Sheet'!K13, IF('Grading Sheet'!D13&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C13,'Grading Sheet'!M13,'Grading Sheet'!O13))))</f>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="93" t="str">
+        <f>IF('Grading Sheet'!D13&gt;'Grading Sheet'!C13*'Grading Sheet'!$G$8,'Grading Sheet'!G13,IF('Grading Sheet'!D13&gt;'Grading Sheet'!C13*'Grading Sheet'!$I$8,'Grading Sheet'!I13,IF('Grading Sheet'!D13&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C13,'Grading Sheet'!K13,IF('Grading Sheet'!D13&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C13,'Grading Sheet'!M13,'Grading Sheet'!O13))))</f>
         <v>very poorly executed reports and data not shown accurately</v>
       </c>
-      <c r="E42" s="86"/>
+      <c r="E42" s="85"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -31131,17 +31241,17 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="90" customHeight="1">
-      <c r="A43" s="88" t="str">
+      <c r="A43" s="83" t="str">
         <f>'Grading Sheet'!B14</f>
         <v>Course wise enrollment report &amp; Chart display</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="85" t="str">
-        <f>IF('Grading Sheet'!D14&gt;'Grading Sheet'!C14*'Grading Sheet'!$G$8,'Grading Sheet'!G14,IF('Grading Sheet'!D14&gt;'Grading Sheet'!C14*'Grading Sheet'!$I$8, 'Grading Sheet'!I14, IF('Grading Sheet'!D14&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C14,'Grading Sheet'!K14, IF('Grading Sheet'!D14&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C14,'Grading Sheet'!M14,'Grading Sheet'!O14))))</f>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="93" t="str">
+        <f>IF('Grading Sheet'!D14&gt;'Grading Sheet'!C14*'Grading Sheet'!$G$8,'Grading Sheet'!G14,IF('Grading Sheet'!D14&gt;'Grading Sheet'!C14*'Grading Sheet'!$I$8,'Grading Sheet'!I14,IF('Grading Sheet'!D14&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C14,'Grading Sheet'!K14,IF('Grading Sheet'!D14&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C14,'Grading Sheet'!M14,'Grading Sheet'!O14))))</f>
         <v>Very poorly designed and only contains one report format with in appropriate data</v>
       </c>
-      <c r="E43" s="86"/>
+      <c r="E43" s="85"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -31165,17 +31275,17 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="90" customHeight="1">
-      <c r="A44" s="88" t="str">
+      <c r="A44" s="83" t="str">
         <f>'Grading Sheet'!B15</f>
         <v>Algorithm used for sorting &amp; proper sorting of data</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="85" t="str">
-        <f>IF('Grading Sheet'!D15&gt;'Grading Sheet'!C15*'Grading Sheet'!$G$8,'Grading Sheet'!G15,IF('Grading Sheet'!D15&gt;'Grading Sheet'!C15*'Grading Sheet'!$I$8, 'Grading Sheet'!I15, IF('Grading Sheet'!D15&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C15,'Grading Sheet'!K15, IF('Grading Sheet'!D15&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C15,'Grading Sheet'!M15,'Grading Sheet'!O15))))</f>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="93" t="str">
+        <f>IF('Grading Sheet'!D15&gt;'Grading Sheet'!C15*'Grading Sheet'!$G$8,'Grading Sheet'!G15,IF('Grading Sheet'!D15&gt;'Grading Sheet'!C15*'Grading Sheet'!$I$8,'Grading Sheet'!I15,IF('Grading Sheet'!D15&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C15,'Grading Sheet'!K15,IF('Grading Sheet'!D15&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C15,'Grading Sheet'!M15,'Grading Sheet'!O15))))</f>
         <v>Sorting is implemented for not function properly</v>
       </c>
-      <c r="E44" s="86"/>
+      <c r="E44" s="85"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -31199,14 +31309,14 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="33" customHeight="1">
-      <c r="A45" s="84" t="str">
-        <f>CONCATENATE('Grading Sheet'!A17, ". ",'Grading Sheet'!B17 )</f>
+      <c r="A45" s="88" t="str">
+        <f>CONCATENATE('Grading Sheet'!A17,". ",'Grading Sheet'!B17)</f>
         <v>B. Documentation</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -31230,17 +31340,17 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="90" customHeight="1">
-      <c r="A46" s="88" t="str">
+      <c r="A46" s="83" t="str">
         <f>'Grading Sheet'!B18</f>
         <v>User Manual for running the application</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="85" t="str">
-        <f>IF('Grading Sheet'!D18&gt;'Grading Sheet'!C18*'Grading Sheet'!$G$8,'Grading Sheet'!G18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!C18*'Grading Sheet'!$I$8, 'Grading Sheet'!I18, IF('Grading Sheet'!D18&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C18,'Grading Sheet'!K18, IF('Grading Sheet'!D18&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C18,'Grading Sheet'!M18,'Grading Sheet'!O18))))</f>
-        <v xml:space="preserve">User Manual is good. Contains all varieties of forms. </v>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="93" t="str">
+        <f>IF('Grading Sheet'!D18&gt;'Grading Sheet'!C18*'Grading Sheet'!$G$8,'Grading Sheet'!G18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!C18*'Grading Sheet'!$I$8,'Grading Sheet'!I18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C18,'Grading Sheet'!K18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C18,'Grading Sheet'!M18,'Grading Sheet'!O18))))</f>
+        <v>User Manual is good. Contains all varieties of forms. </v>
       </c>
-      <c r="E46" s="86"/>
+      <c r="E46" s="85"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -31264,17 +31374,17 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="90" customHeight="1">
-      <c r="A47" s="88" t="str">
+      <c r="A47" s="83" t="str">
         <f>'Grading Sheet'!B19</f>
         <v>Application architecture &amp; description of the classes ad methods sued</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="85" t="str">
-        <f>IF('Grading Sheet'!D19&gt;'Grading Sheet'!C19*'Grading Sheet'!$G$8,'Grading Sheet'!G19,IF('Grading Sheet'!D19&gt;'Grading Sheet'!C19*'Grading Sheet'!$I$8, 'Grading Sheet'!I19, IF('Grading Sheet'!D19&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C19,'Grading Sheet'!K19, IF('Grading Sheet'!D19&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C19,'Grading Sheet'!M19,'Grading Sheet'!O19))))</f>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="93" t="str">
+        <f>IF('Grading Sheet'!D19&gt;'Grading Sheet'!C19*'Grading Sheet'!$G$8,'Grading Sheet'!G19,IF('Grading Sheet'!D19&gt;'Grading Sheet'!C19*'Grading Sheet'!$I$8,'Grading Sheet'!I19,IF('Grading Sheet'!D19&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C19,'Grading Sheet'!K19,IF('Grading Sheet'!D19&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C19,'Grading Sheet'!M19,'Grading Sheet'!O19))))</f>
         <v>architecture is included and satisactory descriptoin of class and methods used.</v>
       </c>
-      <c r="E47" s="86"/>
+      <c r="E47" s="85"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -31298,17 +31408,17 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="90" customHeight="1">
-      <c r="A48" s="88" t="str">
+      <c r="A48" s="83" t="str">
         <f>'Grading Sheet'!B20</f>
         <v>Flow chart, algoriathms and data sctructures used</v>
       </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="85" t="str">
-        <f>IF('Grading Sheet'!D20&gt;'Grading Sheet'!C20*'Grading Sheet'!$G$8,'Grading Sheet'!G20,IF('Grading Sheet'!D20&gt;'Grading Sheet'!C20*'Grading Sheet'!$I$8, 'Grading Sheet'!I20, IF('Grading Sheet'!D20&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C20,'Grading Sheet'!K20, IF('Grading Sheet'!D20&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C20,'Grading Sheet'!M20,'Grading Sheet'!O20))))</f>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="93" t="str">
+        <f>IF('Grading Sheet'!D20&gt;'Grading Sheet'!C20*'Grading Sheet'!$G$8,'Grading Sheet'!G20,IF('Grading Sheet'!D20&gt;'Grading Sheet'!C20*'Grading Sheet'!$I$8,'Grading Sheet'!I20,IF('Grading Sheet'!D20&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C20,'Grading Sheet'!K20,IF('Grading Sheet'!D20&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C20,'Grading Sheet'!M20,'Grading Sheet'!O20))))</f>
         <v>average work with very limited explanation and missing diagramatic representation.</v>
       </c>
-      <c r="E48" s="86"/>
+      <c r="E48" s="85"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -31332,17 +31442,17 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="90" customHeight="1">
-      <c r="A49" s="88" t="str">
+      <c r="A49" s="83" t="str">
         <f>'Grading Sheet'!B21</f>
         <v>Reflective essay</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="85" t="str">
-        <f>IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$G$8,'Grading Sheet'!G21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$I$8, 'Grading Sheet'!I21, IF('Grading Sheet'!D21&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C21,'Grading Sheet'!K21, IF('Grading Sheet'!D21&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C21,'Grading Sheet'!M21,'Grading Sheet'!O21))))</f>
-        <v xml:space="preserve">satisfactorily written about experience and learnings </v>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="93" t="str">
+        <f>IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$G$8,'Grading Sheet'!G21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$I$8,'Grading Sheet'!I21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C21,'Grading Sheet'!K21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C21,'Grading Sheet'!M21,'Grading Sheet'!O21))))</f>
+        <v>satisfactorily written about experience and learnings </v>
       </c>
-      <c r="E49" s="86"/>
+      <c r="E49" s="85"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -31366,14 +31476,14 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1">
-      <c r="A50" s="84" t="str">
-        <f>CONCATENATE('Grading Sheet'!A22, ". ",'Grading Sheet'!B22 )</f>
+      <c r="A50" s="88" t="str">
+        <f>CONCATENATE('Grading Sheet'!A22,". ",'Grading Sheet'!B22)</f>
         <v>C. Programming Style</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -31397,17 +31507,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="69.75" customHeight="1">
-      <c r="A51" s="88" t="str">
+      <c r="A51" s="83" t="str">
         <f>'Grading Sheet'!B23</f>
         <v>Clarity of code,Popper Naming convention &amp; comments</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="95" t="str">
-        <f>IF('Grading Sheet'!D23&gt;'Grading Sheet'!C23*'Grading Sheet'!$G$8,'Grading Sheet'!G23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!C23*'Grading Sheet'!$I$8, 'Grading Sheet'!I23, IF('Grading Sheet'!D23&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C23,'Grading Sheet'!K23, IF('Grading Sheet'!D23&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C23,'Grading Sheet'!M23,'Grading Sheet'!O23))))</f>
-        <v xml:space="preserve">Code is poorly written and lacks comments </v>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="84" t="str">
+        <f>IF('Grading Sheet'!D23&gt;'Grading Sheet'!C23*'Grading Sheet'!$G$8,'Grading Sheet'!G23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!C23*'Grading Sheet'!$I$8,'Grading Sheet'!I23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C23,'Grading Sheet'!K23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C23,'Grading Sheet'!M23,'Grading Sheet'!O23))))</f>
+        <v>Code is poorly written and lacks comments </v>
       </c>
-      <c r="E51" s="86"/>
+      <c r="E51" s="85"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -31431,17 +31541,17 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="81.75" customHeight="1">
-      <c r="A52" s="88" t="str">
+      <c r="A52" s="83" t="str">
         <f>'Grading Sheet'!B24</f>
         <v>System Usability</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="95" t="str">
-        <f>IF('Grading Sheet'!D24&gt;'Grading Sheet'!C24*'Grading Sheet'!$G$8,'Grading Sheet'!G24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!C24*'Grading Sheet'!$I$8, 'Grading Sheet'!I24, IF('Grading Sheet'!D24&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C24,'Grading Sheet'!K24, IF('Grading Sheet'!D24&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C24,'Grading Sheet'!M24,'Grading Sheet'!O24))))</f>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="84" t="str">
+        <f>IF('Grading Sheet'!D24&gt;'Grading Sheet'!C24*'Grading Sheet'!$G$8,'Grading Sheet'!G24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!C24*'Grading Sheet'!$I$8,'Grading Sheet'!I24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C24,'Grading Sheet'!K24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C24,'Grading Sheet'!M24,'Grading Sheet'!O24))))</f>
         <v>System can be used but is in efficient and in attracative</v>
       </c>
-      <c r="E52" s="86"/>
+      <c r="E52" s="85"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -31465,11 +31575,11 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A53" s="90"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="77"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="79"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -31493,19 +31603,19 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A54" s="96" t="s">
-        <v>76</v>
+      <c r="A54" s="87" t="s">
+        <v>75</v>
       </c>
-      <c r="B54" s="83"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="56" t="str">
-        <f>IF('Grading Sheet'!D25 &gt;90, "A+",IF('Grading Sheet'!D25&gt;85, "A", IF('Grading Sheet'!D25&gt;80, "B+", IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70, "C+", IF('Grading Sheet'!D25&gt;65, "C", IF('Grading Sheet'!D25&gt;60, "D+", IF('Grading Sheet'!D25&gt;55, "D", IF('Grading Sheet'!D25&gt;50, "E+", IF('Grading Sheet'!D25&gt;45, "F+", "F"))))))))))</f>
+        <f>IF('Grading Sheet'!D25&gt;90,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;80,"B+",IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70,"C+",IF('Grading Sheet'!D25&gt;65,"C",IF('Grading Sheet'!D25&gt;60,"D+",IF('Grading Sheet'!D25&gt;55,"D",IF('Grading Sheet'!D25&gt;50,"E+",IF('Grading Sheet'!D25&gt;45,"F+","F"))))))))))</f>
         <v>C</v>
       </c>
       <c r="D54" s="89" t="str">
-        <f>IF('Grading Sheet'!D25 &gt;90, "A+",IF('Grading Sheet'!D25&gt;85, "A", IF('Grading Sheet'!D25&gt;80, "B+", IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70, "C+", IF('Grading Sheet'!D25&gt;65, "C", IF('Grading Sheet'!D25&gt;60, "D+", IF('Grading Sheet'!D25&gt;55, "D", IF('Grading Sheet'!D25&gt;50, "E+", IF('Grading Sheet'!D25&gt;45, "F+", "F"))))))))))</f>
+        <f>IF('Grading Sheet'!D25&gt;90,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;80,"B+",IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70,"C+",IF('Grading Sheet'!D25&gt;65,"C",IF('Grading Sheet'!D25&gt;60,"D+",IF('Grading Sheet'!D25&gt;55,"D",IF('Grading Sheet'!D25&gt;50,"E+",IF('Grading Sheet'!D25&gt;45,"F+","F"))))))))))</f>
         <v>C</v>
       </c>
-      <c r="E54" s="83"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -31529,11 +31639,11 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A55" s="90"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -31557,13 +31667,13 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A56" s="91" t="s">
-        <v>84</v>
+      <c r="A56" s="90" t="s">
+        <v>83</v>
       </c>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -31587,13 +31697,13 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="112.5" customHeight="1">
-      <c r="A57" s="93" t="s">
-        <v>85</v>
+      <c r="A57" s="92" t="s">
+        <v>84</v>
       </c>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="83"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -31617,13 +31727,13 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="96" customHeight="1">
-      <c r="A58" s="94" t="s">
-        <v>90</v>
+      <c r="A58" s="80" t="s">
+        <v>89</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="83"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -58164,6 +58274,39 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="D51:E51"/>
@@ -58172,63 +58315,31 @@
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A37:E37"/>
   </mergeCells>
+  <printOptions/>
   <pageMargins left="0.5" right="0" top="0.2" bottom="0.2" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;CMarking Scheme</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="7.75390625" customWidth="1"/>
+    <col min="2" max="2" width="6.50390625" customWidth="1"/>
     <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="26" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="11.50390625" customWidth="1"/>
+    <col min="5" max="5" width="10.00390625" customWidth="1"/>
+    <col min="6" max="26" width="7.75390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1">
@@ -58264,14 +58375,14 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="5">
         <f>'Grading Sheet'!D10</f>
         <v>11</v>
       </c>
       <c r="B2" s="5">
         <f>(A2/'Grading Sheet'!C10)*100</f>
-        <v>73.333333333333329</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>IF(B2&gt;=100,'Grading Sheet'!E10,IF(B2&gt;=90,'Grading Sheet'!F10,IF(B2&gt;=80,'Grading Sheet'!G10,IF(B2&gt;=70,'Grading Sheet'!H10,IF(B2&gt;=60,'Grading Sheet'!I10,IF(B2&gt;=50,'Grading Sheet'!J10,IF(B2&gt;=40,'Grading Sheet'!K10,IF(B2&gt;=30,'Grading Sheet'!L10,IF(B2&gt;=20,'Grading Sheet'!M10,IF(B2&gt;=10,'Grading Sheet'!N10,'Grading Sheet'!O10))))))))))</f>
@@ -58286,7 +58397,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="5">
         <f>'Grading Sheet'!D11</f>
         <v>12</v>
@@ -58300,7 +58411,7 @@
         <v>Data entry is  proper with appropriate  validation and use of proper datatyps and contains CRUD methods</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="5">
         <f>'Grading Sheet'!D13</f>
         <v>6</v>
@@ -58314,105 +58425,105 @@
         <v>Any one of the report is missing or not complete</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B5" s="5" t="e">
-        <f>(A5/'Grading Sheet'!#REF!)*100</f>
+        <f>(A5/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C5" s="5" t="e">
-        <f>IF(B5&gt;=100,'Grading Sheet'!#REF!,IF(B5&gt;=90,'Grading Sheet'!#REF!,IF(B5&gt;=80,'Grading Sheet'!#REF!,IF(B5&gt;=70,'Grading Sheet'!#REF!,IF(B5&gt;=60,'Grading Sheet'!#REF!,IF(B5&gt;=50,'Grading Sheet'!#REF!,IF(B5&gt;=40,'Grading Sheet'!#REF!,IF(B5&gt;=30,'Grading Sheet'!#REF!,IF(B5&gt;=20,'Grading Sheet'!#REF!,IF(B5&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B5&gt;=100,#REF!,IF(B5&gt;=90,#REF!,IF(B5&gt;=80,#REF!,IF(B5&gt;=70,#REF!,IF(B5&gt;=60,#REF!,IF(B5&gt;=50,#REF!,IF(B5&gt;=40,#REF!,IF(B5&gt;=30,#REF!,IF(B5&gt;=20,#REF!,IF(B5&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B6" s="5" t="e">
-        <f>(A6/'Grading Sheet'!#REF!)*100</f>
+        <f>(A6/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C6" s="5" t="e">
-        <f>IF(B6&gt;=100,'Grading Sheet'!#REF!,IF(B6&gt;=90,'Grading Sheet'!#REF!,IF(B6&gt;=80,'Grading Sheet'!#REF!,IF(B6&gt;=70,'Grading Sheet'!#REF!,IF(B6&gt;=60,'Grading Sheet'!#REF!,IF(B6&gt;=50,'Grading Sheet'!#REF!,IF(B6&gt;=40,'Grading Sheet'!#REF!,IF(B6&gt;=30,'Grading Sheet'!#REF!,IF(B6&gt;=20,'Grading Sheet'!#REF!,IF(B6&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B6&gt;=100,#REF!,IF(B6&gt;=90,#REF!,IF(B6&gt;=80,#REF!,IF(B6&gt;=70,#REF!,IF(B6&gt;=60,#REF!,IF(B6&gt;=50,#REF!,IF(B6&gt;=40,#REF!,IF(B6&gt;=30,#REF!,IF(B6&gt;=20,#REF!,IF(B6&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B7" s="5" t="e">
-        <f>(A7/'Grading Sheet'!#REF!)*100</f>
+        <f>(A7/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C7" s="5" t="e">
-        <f>IF(B7&gt;=100,'Grading Sheet'!#REF!,IF(B7&gt;=90,'Grading Sheet'!#REF!,IF(B7&gt;=80,'Grading Sheet'!#REF!,IF(B7&gt;=70,'Grading Sheet'!#REF!,IF(B7&gt;=60,'Grading Sheet'!#REF!,IF(B7&gt;=50,'Grading Sheet'!#REF!,IF(B7&gt;=40,'Grading Sheet'!#REF!,IF(B7&gt;=30,'Grading Sheet'!#REF!,IF(B7&gt;=20,'Grading Sheet'!#REF!,IF(B7&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B7&gt;=100,#REF!,IF(B7&gt;=90,#REF!,IF(B7&gt;=80,#REF!,IF(B7&gt;=70,#REF!,IF(B7&gt;=60,#REF!,IF(B7&gt;=50,#REF!,IF(B7&gt;=40,#REF!,IF(B7&gt;=30,#REF!,IF(B7&gt;=20,#REF!,IF(B7&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B8" s="5" t="e">
-        <f>(A8/'Grading Sheet'!#REF!)*100</f>
+        <f>(A8/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C8" s="5" t="e">
-        <f>IF(B8&gt;=100,'Grading Sheet'!#REF!,IF(B8&gt;=90,'Grading Sheet'!#REF!,IF(B8&gt;=80,'Grading Sheet'!#REF!,IF(B8&gt;=70,'Grading Sheet'!#REF!,IF(B8&gt;=60,'Grading Sheet'!#REF!,IF(B8&gt;=50,'Grading Sheet'!#REF!,IF(B8&gt;=40,'Grading Sheet'!#REF!,IF(B8&gt;=30,'Grading Sheet'!#REF!,IF(B8&gt;=20,'Grading Sheet'!#REF!,IF(B8&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B8&gt;=100,#REF!,IF(B8&gt;=90,#REF!,IF(B8&gt;=80,#REF!,IF(B8&gt;=70,#REF!,IF(B8&gt;=60,#REF!,IF(B8&gt;=50,#REF!,IF(B8&gt;=40,#REF!,IF(B8&gt;=30,#REF!,IF(B8&gt;=20,#REF!,IF(B8&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B9" s="5" t="e">
-        <f>(A9/'Grading Sheet'!#REF!)*100</f>
+        <f>(A9/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C9" s="5" t="e">
-        <f>IF(B9&gt;=100,'Grading Sheet'!#REF!,IF(B9&gt;=90,'Grading Sheet'!#REF!,IF(B9&gt;=80,'Grading Sheet'!#REF!,IF(B9&gt;=70,'Grading Sheet'!#REF!,IF(B9&gt;=60,'Grading Sheet'!#REF!,IF(B9&gt;=50,'Grading Sheet'!#REF!,IF(B9&gt;=40,'Grading Sheet'!#REF!,IF(B9&gt;=30,'Grading Sheet'!#REF!,IF(B9&gt;=20,'Grading Sheet'!#REF!,IF(B9&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B9&gt;=100,#REF!,IF(B9&gt;=90,#REF!,IF(B9&gt;=80,#REF!,IF(B9&gt;=70,#REF!,IF(B9&gt;=60,#REF!,IF(B9&gt;=50,#REF!,IF(B9&gt;=40,#REF!,IF(B9&gt;=30,#REF!,IF(B9&gt;=20,#REF!,IF(B9&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B10" s="5" t="e">
-        <f>(A10/'Grading Sheet'!#REF!)*100</f>
+        <f>(A10/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C10" s="5" t="e">
-        <f>IF(B10&gt;=100,'Grading Sheet'!#REF!,IF(B10&gt;=90,'Grading Sheet'!#REF!,IF(B10&gt;=80,'Grading Sheet'!#REF!,IF(B10&gt;=70,'Grading Sheet'!#REF!,IF(B10&gt;=60,'Grading Sheet'!#REF!,IF(B10&gt;=50,'Grading Sheet'!#REF!,IF(B10&gt;=40,'Grading Sheet'!#REF!,IF(B10&gt;=30,'Grading Sheet'!#REF!,IF(B10&gt;=20,'Grading Sheet'!#REF!,IF(B10&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B10&gt;=100,#REF!,IF(B10&gt;=90,#REF!,IF(B10&gt;=80,#REF!,IF(B10&gt;=70,#REF!,IF(B10&gt;=60,#REF!,IF(B10&gt;=50,#REF!,IF(B10&gt;=40,#REF!,IF(B10&gt;=30,#REF!,IF(B10&gt;=20,#REF!,IF(B10&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B11" s="5" t="e">
-        <f>(A11/'Grading Sheet'!#REF!)*100</f>
+        <f>(A11/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C11" s="5" t="e">
-        <f>IF(B11&gt;=100,'Grading Sheet'!#REF!,IF(B11&gt;=90,'Grading Sheet'!#REF!,IF(B11&gt;=80,'Grading Sheet'!#REF!,IF(B11&gt;=70,'Grading Sheet'!#REF!,IF(B11&gt;=60,'Grading Sheet'!#REF!,IF(B11&gt;=50,'Grading Sheet'!#REF!,IF(B11&gt;=40,'Grading Sheet'!#REF!,IF(B11&gt;=30,'Grading Sheet'!#REF!,IF(B11&gt;=20,'Grading Sheet'!#REF!,IF(B11&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B11&gt;=100,#REF!,IF(B11&gt;=90,#REF!,IF(B11&gt;=80,#REF!,IF(B11&gt;=70,#REF!,IF(B11&gt;=60,#REF!,IF(B11&gt;=50,#REF!,IF(B11&gt;=40,#REF!,IF(B11&gt;=30,#REF!,IF(B11&gt;=20,#REF!,IF(B11&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="5">
         <f>'Grading Sheet'!D18</f>
         <v>4</v>
@@ -58426,49 +58537,49 @@
         <v>User Manual is self decriptive and concise. Contains screen shots and step by step use of the application</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B13" s="5" t="e">
-        <f>(A13/'Grading Sheet'!#REF!)*100</f>
+        <f>(A13/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C13" s="5" t="e">
-        <f>IF(B13&gt;=100,'Grading Sheet'!#REF!,IF(B13&gt;=90,'Grading Sheet'!#REF!,IF(B13&gt;=80,'Grading Sheet'!#REF!,IF(B13&gt;=70,'Grading Sheet'!#REF!,IF(B13&gt;=60,'Grading Sheet'!#REF!,IF(B13&gt;=50,'Grading Sheet'!#REF!,IF(B13&gt;=40,'Grading Sheet'!#REF!,IF(B13&gt;=30,'Grading Sheet'!#REF!,IF(B13&gt;=20,'Grading Sheet'!#REF!,IF(B13&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B13&gt;=100,#REF!,IF(B13&gt;=90,#REF!,IF(B13&gt;=80,#REF!,IF(B13&gt;=70,#REF!,IF(B13&gt;=60,#REF!,IF(B13&gt;=50,#REF!,IF(B13&gt;=40,#REF!,IF(B13&gt;=30,#REF!,IF(B13&gt;=20,#REF!,IF(B13&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B14" s="5" t="e">
-        <f>(A14/'Grading Sheet'!#REF!)*100</f>
+        <f>(A14/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C14" s="5" t="e">
-        <f>IF(B14&gt;=100,'Grading Sheet'!#REF!,IF(B14&gt;=90,'Grading Sheet'!#REF!,IF(B14&gt;=80,'Grading Sheet'!#REF!,IF(B14&gt;=70,'Grading Sheet'!#REF!,IF(B14&gt;=60,'Grading Sheet'!#REF!,IF(B14&gt;=50,'Grading Sheet'!#REF!,IF(B14&gt;=40,'Grading Sheet'!#REF!,IF(B14&gt;=30,'Grading Sheet'!#REF!,IF(B14&gt;=20,'Grading Sheet'!#REF!,IF(B14&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B14&gt;=100,#REF!,IF(B14&gt;=90,#REF!,IF(B14&gt;=80,#REF!,IF(B14&gt;=70,#REF!,IF(B14&gt;=60,#REF!,IF(B14&gt;=50,#REF!,IF(B14&gt;=40,#REF!,IF(B14&gt;=30,#REF!,IF(B14&gt;=20,#REF!,IF(B14&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="e">
-        <f>'Grading Sheet'!#REF!</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B15" s="5" t="e">
-        <f>(A15/'Grading Sheet'!#REF!)*100</f>
+        <f>(A15/#REF!)*100</f>
         <v>#REF!</v>
       </c>
       <c r="C15" s="5" t="e">
-        <f>IF(B15&gt;=100,'Grading Sheet'!#REF!,IF(B15&gt;=90,'Grading Sheet'!#REF!,IF(B15&gt;=80,'Grading Sheet'!#REF!,IF(B15&gt;=70,'Grading Sheet'!#REF!,IF(B15&gt;=60,'Grading Sheet'!#REF!,IF(B15&gt;=50,'Grading Sheet'!#REF!,IF(B15&gt;=40,'Grading Sheet'!#REF!,IF(B15&gt;=30,'Grading Sheet'!#REF!,IF(B15&gt;=20,'Grading Sheet'!#REF!,IF(B15&gt;=10,'Grading Sheet'!#REF!,'Grading Sheet'!#REF!))))))))))</f>
+        <f>IF(B15&gt;=100,#REF!,IF(B15&gt;=90,#REF!,IF(B15&gt;=80,#REF!,IF(B15&gt;=70,#REF!,IF(B15&gt;=60,#REF!,IF(B15&gt;=50,#REF!,IF(B15&gt;=40,#REF!,IF(B15&gt;=30,#REF!,IF(B15&gt;=20,#REF!,IF(B15&gt;=10,#REF!,#REF!))))))))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -59454,7 +59565,8 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>